--- a/QuantLibXL/StandaloneExamples/Analytics/InterestRateDerivatives.xlsx
+++ b/QuantLibXL/StandaloneExamples/Analytics/InterestRateDerivatives.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojan\OneDrive - BN Algorithms Ltd\QuantLib\QLXL-v1.14-IRfix\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_8E4ABFE60946FEC56EF76F1D976C3E7074F2A477" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0E5D53C3-C495-4E22-8A30-F2DA194430B4}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19050" windowHeight="12405"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="19056" windowHeight="12408" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TermStructures" sheetId="1" r:id="rId1"/>
@@ -23,19 +29,28 @@
     <definedName name="EffectiveDate">DateCalc!$B$2</definedName>
     <definedName name="Nominal">Swaps!$B$13</definedName>
     <definedName name="ReferenceDate">TermStructures!$E$4</definedName>
+    <definedName name="SwaptionExpiry">Swaption!$B$4</definedName>
     <definedName name="TerminationDate">DateCalc!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -313,12 +328,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -487,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -513,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -539,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -565,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -578,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -591,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -604,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -617,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -630,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -643,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -661,12 +676,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -679,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -692,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -705,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -718,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -731,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -744,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -757,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -770,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -783,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -796,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -809,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -822,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -835,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -853,12 +868,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -871,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -884,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -897,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -910,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -936,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -949,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -962,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -975,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -988,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1001,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1079,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1118,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1144,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1170,7 +1185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1183,7 +1198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1196,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1248,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1326,7 +1341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1339,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1352,7 +1367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1365,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1378,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1404,7 +1419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1417,7 +1432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1435,12 +1450,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1466,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1479,7 +1494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1492,7 +1507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1518,7 +1533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1531,7 +1546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1544,7 +1559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1601,12 +1616,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1619,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1645,7 +1660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1658,7 +1673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1671,7 +1686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1710,7 +1725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1723,7 +1738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1741,12 +1756,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1759,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1772,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1798,7 +1813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1811,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1837,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1850,7 +1865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1863,7 +1878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1876,7 +1891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1889,7 +1904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1902,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1915,7 +1930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1928,7 +1943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1941,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1954,7 +1969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1967,7 +1982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1980,7 +1995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1993,7 +2008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000014000000}">
       <text>
         <r>
           <rPr>
@@ -2006,7 +2021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2019,7 +2034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2032,7 +2047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2045,7 +2060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2058,7 +2073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2071,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2084,7 +2099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2097,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2110,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2123,7 +2138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2136,7 +2151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2456,7 +2471,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
@@ -2762,6 +2777,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2809,7 +2827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2842,9 +2860,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2877,6 +2912,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3052,23 +3104,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3078,24 +3130,24 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlFlatForward(B3,B4,B5,B6,B7,B8,B9,B10,B11)</f>
-        <v>obj_00000#0020</v>
+        <v>obj_00002#0000</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="11" t="str">
         <f>_xll.qlConstantSwaptionVolatility(E3,0,"TARGET","f",E5,E6,E7,E8)</f>
-        <v>obj_00004#0016</v>
+        <v>obj_00001#0000</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="H1" s="11" t="str">
         <f>_xll.qlConstantOptionletVolatility(H3,0,H5,"f",H4,H6,H7,H8)</f>
-        <v>obj_00007#0010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00003#0000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3194,7 @@
       </c>
       <c r="E4" s="15">
         <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42097</v>
+        <v>43489</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -3201,7 +3253,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3231,7 +3283,7 @@
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3242,17 +3294,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 B5">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 E6 B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 E6 B7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Simple,Compounded,Continuous,SimpleThenCompounded"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Annual,Semiannual,EveryFourthMonth,Quarterly,Bimonthly,Monthly,Biweekly,Weekly,Daily,Once,NoFrequency"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3264,35 +3316,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="str">
         <f t="array" ref="A1:U24">_xll.qlSwapLegAnalysis(Swaps!E1,1)</f>
         <v>Payment Date</v>
@@ -3358,24 +3410,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
-        <v>42286</v>
+        <v>44040</v>
       </c>
       <c r="B2" s="35">
-        <v>22305.401021215144</v>
+        <v>22182.171633423619</v>
       </c>
       <c r="C2" s="35">
         <v>1000000</v>
       </c>
       <c r="D2" s="41">
-        <v>42103</v>
+        <v>43858</v>
       </c>
       <c r="E2" s="41">
-        <v>42286</v>
+        <v>44040</v>
       </c>
       <c r="F2" s="36">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3384,16 +3436,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="41">
-        <v>42101</v>
+        <v>43854</v>
       </c>
       <c r="J2" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K2" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="L2" s="39">
-        <v>4.387947741878389E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="M2" s="39" t="str">
         <v>#N/A</v>
@@ -3402,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="39">
-        <v>4.387947741878389E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="P2" s="39">
         <v>0</v>
@@ -3442,24 +3494,24 @@
       <c r="AM2" s="30"/>
       <c r="AN2" s="30"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="B3" s="35">
-        <v>22551.90436642418</v>
+        <v>22428.645264951807</v>
       </c>
       <c r="C3" s="35">
         <v>1000000</v>
       </c>
       <c r="D3" s="41">
-        <v>42286</v>
+        <v>44040</v>
       </c>
       <c r="E3" s="41">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="F3" s="36">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3468,16 +3520,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="41">
-        <v>42284</v>
+        <v>44036</v>
       </c>
       <c r="J3" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K3" s="38">
-        <v>0.51388888888888884</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="L3" s="39">
-        <v>4.3884786875203814E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="M3" s="39" t="str">
         <v>#N/A</v>
@@ -3486,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="39">
-        <v>4.3884786875203814E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="P3" s="39">
         <v>0</v>
@@ -3526,24 +3578,24 @@
       <c r="AM3" s="30"/>
       <c r="AN3" s="30"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
-        <v>42653</v>
+        <v>44405</v>
       </c>
       <c r="B4" s="35">
-        <v>22182.171633423619</v>
+        <v>22058.957099786225</v>
       </c>
       <c r="C4" s="35">
         <v>1000000</v>
       </c>
       <c r="D4" s="41">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="E4" s="41">
-        <v>42653</v>
+        <v>44405</v>
       </c>
       <c r="F4" s="36">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3552,16 +3604,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="41">
-        <v>42467</v>
+        <v>44222</v>
       </c>
       <c r="J4" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K4" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="L4" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="M4" s="39" t="str">
         <v>#N/A</v>
@@ -3570,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="P4" s="39">
         <v>0</v>
@@ -3610,24 +3662,24 @@
       <c r="AM4" s="30"/>
       <c r="AN4" s="30"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="B5" s="35">
-        <v>22182.171633423615</v>
+        <v>22428.645264951585</v>
       </c>
       <c r="C5" s="35">
         <v>1000000</v>
       </c>
       <c r="D5" s="41">
-        <v>42653</v>
+        <v>44405</v>
       </c>
       <c r="E5" s="41">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="F5" s="36">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3636,16 +3688,16 @@
         <v>2</v>
       </c>
       <c r="I5" s="41">
-        <v>42649</v>
+        <v>44403</v>
       </c>
       <c r="J5" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K5" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="L5" s="39">
-        <v>4.3876823011167597E-2</v>
+        <v>4.3882132040122673E-2</v>
       </c>
       <c r="M5" s="39" t="str">
         <v>#N/A</v>
@@ -3654,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3882132040122673E-2</v>
       </c>
       <c r="P5" s="39">
-        <v>-6.9388939039072284E-18</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="39">
         <v>0</v>
@@ -3694,24 +3746,24 @@
       <c r="AM5" s="30"/>
       <c r="AN5" s="30"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
-        <v>43017</v>
+        <v>44770</v>
       </c>
       <c r="B6" s="35">
-        <v>22182.171633423615</v>
+        <v>22058.957099786225</v>
       </c>
       <c r="C6" s="35">
         <v>1000000</v>
       </c>
       <c r="D6" s="41">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="E6" s="41">
-        <v>43017</v>
+        <v>44770</v>
       </c>
       <c r="F6" s="36">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3720,16 +3772,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="41">
-        <v>42831</v>
+        <v>44587</v>
       </c>
       <c r="J6" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K6" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="L6" s="39">
-        <v>4.3876823011167597E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="M6" s="39" t="str">
         <v>#N/A</v>
@@ -3738,10 +3790,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="P6" s="39">
-        <v>-6.9388939039072284E-18</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="39">
         <v>0</v>
@@ -3778,24 +3830,24 @@
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="B7" s="35">
-        <v>22182.171633423619</v>
+        <v>22675.178327423495</v>
       </c>
       <c r="C7" s="35">
         <v>1000000</v>
       </c>
       <c r="D7" s="41">
-        <v>43017</v>
+        <v>44770</v>
       </c>
       <c r="E7" s="41">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="F7" s="36">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3804,16 +3856,16 @@
         <v>2</v>
       </c>
       <c r="I7" s="41">
-        <v>43013</v>
+        <v>44768</v>
       </c>
       <c r="J7" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K7" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="L7" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3887441924045471E-2</v>
       </c>
       <c r="M7" s="39" t="str">
         <v>#N/A</v>
@@ -3822,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3887441924045471E-2</v>
       </c>
       <c r="P7" s="39">
         <v>0</v>
@@ -3862,24 +3914,24 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
-        <v>43382</v>
+        <v>45135</v>
       </c>
       <c r="B8" s="35">
-        <v>22305.401021215366</v>
+        <v>21812.572587811774</v>
       </c>
       <c r="C8" s="35">
         <v>1000000</v>
       </c>
       <c r="D8" s="41">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="E8" s="41">
-        <v>43382</v>
+        <v>45135</v>
       </c>
       <c r="F8" s="36">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G8" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3888,16 +3940,16 @@
         <v>2</v>
       </c>
       <c r="I8" s="41">
-        <v>43195</v>
+        <v>44952</v>
       </c>
       <c r="J8" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K8" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="L8" s="39">
-        <v>4.3879477418784327E-2</v>
+        <v>4.3868861070459432E-2</v>
       </c>
       <c r="M8" s="39" t="str">
         <v>#N/A</v>
@@ -3906,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="39">
-        <v>4.3879477418784327E-2</v>
+        <v>4.3868861070459432E-2</v>
       </c>
       <c r="P8" s="39">
         <v>0</v>
@@ -3946,24 +3998,24 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="B9" s="35">
-        <v>22182.171633423615</v>
+        <v>22551.904366423958</v>
       </c>
       <c r="C9" s="35">
         <v>1000000</v>
       </c>
       <c r="D9" s="41">
-        <v>43382</v>
+        <v>45135</v>
       </c>
       <c r="E9" s="41">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="F9" s="36">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G9" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -3972,16 +4024,16 @@
         <v>2</v>
       </c>
       <c r="I9" s="41">
-        <v>43378</v>
+        <v>45133</v>
       </c>
       <c r="J9" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K9" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="L9" s="39">
-        <v>4.3876823011167597E-2</v>
+        <v>4.3884786875203384E-2</v>
       </c>
       <c r="M9" s="39" t="str">
         <v>#N/A</v>
@@ -3990,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3884786875203384E-2</v>
       </c>
       <c r="P9" s="39">
-        <v>-6.9388939039072284E-18</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="39">
         <v>0</v>
@@ -4030,24 +4082,24 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
-        <v>43747</v>
+        <v>45502</v>
       </c>
       <c r="B10" s="35">
-        <v>22305.401021215144</v>
+        <v>22182.171633423841</v>
       </c>
       <c r="C10" s="35">
         <v>1000000</v>
       </c>
       <c r="D10" s="41">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="E10" s="41">
-        <v>43747</v>
+        <v>45502</v>
       </c>
       <c r="F10" s="36">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4056,16 +4108,16 @@
         <v>2</v>
       </c>
       <c r="I10" s="41">
-        <v>43560</v>
+        <v>45316</v>
       </c>
       <c r="J10" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K10" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="L10" s="39">
-        <v>4.387947741878389E-2</v>
+        <v>4.3876823011168041E-2</v>
       </c>
       <c r="M10" s="39" t="str">
         <v>#N/A</v>
@@ -4074,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="39">
-        <v>4.387947741878389E-2</v>
+        <v>4.3876823011168041E-2</v>
       </c>
       <c r="P10" s="39">
         <v>0</v>
@@ -4114,9 +4166,9 @@
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="B11" s="35">
         <v>22305.401021215144</v>
@@ -4125,10 +4177,10 @@
         <v>1000000</v>
       </c>
       <c r="D11" s="41">
-        <v>43747</v>
+        <v>45502</v>
       </c>
       <c r="E11" s="41">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="F11" s="36">
         <v>183</v>
@@ -4140,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="41">
-        <v>43745</v>
+        <v>45498</v>
       </c>
       <c r="J11" s="36" t="str">
         <v>Actual/360</v>
@@ -4198,24 +4250,24 @@
       <c r="AM11" s="30"/>
       <c r="AN11" s="30"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
-        <v>44113</v>
+        <v>45866</v>
       </c>
       <c r="B12" s="35">
-        <v>22305.40102121537</v>
+        <v>22058.957099786225</v>
       </c>
       <c r="C12" s="35">
         <v>1000000</v>
       </c>
       <c r="D12" s="41">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="E12" s="41">
-        <v>44113</v>
+        <v>45866</v>
       </c>
       <c r="F12" s="36">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G12" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4224,16 +4276,16 @@
         <v>2</v>
       </c>
       <c r="I12" s="41">
-        <v>43928</v>
+        <v>45681</v>
       </c>
       <c r="J12" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K12" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="L12" s="39">
-        <v>4.3879477418784334E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="M12" s="39" t="str">
         <v>#N/A</v>
@@ -4242,10 +4294,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="39">
-        <v>4.3879477418784327E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="P12" s="39">
-        <v>6.9388939039072284E-18</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="39">
         <v>0</v>
@@ -4282,24 +4334,24 @@
       <c r="AM12" s="30"/>
       <c r="AN12" s="30"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="B13" s="35">
-        <v>22182.171633423615</v>
+        <v>22428.645264951807</v>
       </c>
       <c r="C13" s="35">
         <v>1000000</v>
       </c>
       <c r="D13" s="41">
-        <v>44113</v>
+        <v>45866</v>
       </c>
       <c r="E13" s="41">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="F13" s="36">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G13" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4308,16 +4360,16 @@
         <v>2</v>
       </c>
       <c r="I13" s="41">
-        <v>44111</v>
+        <v>45862</v>
       </c>
       <c r="J13" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K13" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="L13" s="39">
-        <v>4.3876823011167597E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="M13" s="39" t="str">
         <v>#N/A</v>
@@ -4326,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="O13" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="P13" s="39">
-        <v>-6.9388939039072284E-18</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="39">
         <v>0</v>
@@ -4366,24 +4418,24 @@
       <c r="AM13" s="30"/>
       <c r="AN13" s="30"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
-        <v>44480</v>
+        <v>46231</v>
       </c>
       <c r="B14" s="35">
-        <v>22551.90436642418</v>
+        <v>22058.957099786225</v>
       </c>
       <c r="C14" s="35">
         <v>1000000</v>
       </c>
       <c r="D14" s="41">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="E14" s="41">
-        <v>44480</v>
+        <v>46231</v>
       </c>
       <c r="F14" s="36">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G14" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4392,16 +4444,16 @@
         <v>2</v>
       </c>
       <c r="I14" s="41">
-        <v>44293</v>
+        <v>46048</v>
       </c>
       <c r="J14" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K14" s="38">
-        <v>0.51388888888888884</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="L14" s="39">
-        <v>4.3884786875203814E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="M14" s="39" t="str">
         <v>#N/A</v>
@@ -4410,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="39">
-        <v>4.3884786875203814E-2</v>
+        <v>4.3874168817254373E-2</v>
       </c>
       <c r="P14" s="39">
         <v>0</v>
@@ -4450,24 +4502,24 @@
       <c r="AM14" s="30"/>
       <c r="AN14" s="30"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="B15" s="35">
-        <v>22182.171633423619</v>
+        <v>22428.645264951585</v>
       </c>
       <c r="C15" s="35">
         <v>1000000</v>
       </c>
       <c r="D15" s="41">
-        <v>44480</v>
+        <v>46231</v>
       </c>
       <c r="E15" s="41">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="F15" s="36">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G15" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4476,16 +4528,16 @@
         <v>2</v>
       </c>
       <c r="I15" s="41">
-        <v>44476</v>
+        <v>46227</v>
       </c>
       <c r="J15" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K15" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="L15" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3882132040122673E-2</v>
       </c>
       <c r="M15" s="39" t="str">
         <v>#N/A</v>
@@ -4494,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="39">
-        <v>4.3876823011167604E-2</v>
+        <v>4.3882132040122673E-2</v>
       </c>
       <c r="P15" s="39">
         <v>0</v>
@@ -4534,24 +4586,24 @@
       <c r="AM15" s="30"/>
       <c r="AN15" s="30"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
-        <v>44844</v>
+        <v>46596</v>
       </c>
       <c r="B16" s="35">
-        <v>22182.171633423397</v>
+        <v>22058.957099786003</v>
       </c>
       <c r="C16" s="35">
         <v>1000000</v>
       </c>
       <c r="D16" s="41">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="E16" s="41">
-        <v>44844</v>
+        <v>46596</v>
       </c>
       <c r="F16" s="36">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4560,16 +4612,16 @@
         <v>2</v>
       </c>
       <c r="I16" s="41">
-        <v>44658</v>
+        <v>46413</v>
       </c>
       <c r="J16" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K16" s="38">
-        <v>0.50555555555555554</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="L16" s="39">
-        <v>4.387682301116716E-2</v>
+        <v>4.3874168817253929E-2</v>
       </c>
       <c r="M16" s="39" t="str">
         <v>#N/A</v>
@@ -4578,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="39">
-        <v>4.387682301116716E-2</v>
+        <v>4.3874168817253929E-2</v>
       </c>
       <c r="P16" s="39">
         <v>0</v>
@@ -4618,24 +4670,24 @@
       <c r="AM16" s="30"/>
       <c r="AN16" s="30"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="B17" s="35">
-        <v>22305.401021215366</v>
+        <v>22428.645264951807</v>
       </c>
       <c r="C17" s="35">
         <v>1000000</v>
       </c>
       <c r="D17" s="41">
-        <v>44844</v>
+        <v>46596</v>
       </c>
       <c r="E17" s="41">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="F17" s="36">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G17" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4644,16 +4696,16 @@
         <v>2</v>
       </c>
       <c r="I17" s="41">
-        <v>44840</v>
+        <v>46594</v>
       </c>
       <c r="J17" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K17" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="L17" s="39">
-        <v>4.3879477418784327E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="M17" s="39" t="str">
         <v>#N/A</v>
@@ -4662,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="39">
-        <v>4.3879477418784327E-2</v>
+        <v>4.3882132040123104E-2</v>
       </c>
       <c r="P17" s="39">
         <v>0</v>
@@ -4702,24 +4754,24 @@
       <c r="AM17" s="30"/>
       <c r="AN17" s="30"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
-        <v>45208</v>
+        <v>46962</v>
       </c>
       <c r="B18" s="35">
-        <v>22058.957099786221</v>
+        <v>22182.171633423619</v>
       </c>
       <c r="C18" s="35">
         <v>1000000</v>
       </c>
       <c r="D18" s="41">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="E18" s="41">
-        <v>45208</v>
+        <v>46962</v>
       </c>
       <c r="F18" s="36">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4728,16 +4780,16 @@
         <v>2</v>
       </c>
       <c r="I18" s="41">
-        <v>45021</v>
+        <v>46778</v>
       </c>
       <c r="J18" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K18" s="38">
-        <v>0.50277777777777777</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="L18" s="39">
-        <v>4.3874168817254366E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="M18" s="39" t="str">
         <v>#N/A</v>
@@ -4746,10 +4798,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="39">
-        <v>4.3874168817254373E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="P18" s="39">
-        <v>-6.9388939039072284E-18</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="39">
         <v>0</v>
@@ -4786,24 +4838,24 @@
       <c r="AM18" s="30"/>
       <c r="AN18" s="30"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="B19" s="35">
-        <v>22305.401021215366</v>
+        <v>22551.904366423958</v>
       </c>
       <c r="C19" s="35">
         <v>1000000</v>
       </c>
       <c r="D19" s="41">
-        <v>45208</v>
+        <v>46962</v>
       </c>
       <c r="E19" s="41">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="F19" s="36">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G19" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4812,16 +4864,16 @@
         <v>2</v>
       </c>
       <c r="I19" s="41">
-        <v>45204</v>
+        <v>46960</v>
       </c>
       <c r="J19" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K19" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="L19" s="39">
-        <v>4.3879477418784327E-2</v>
+        <v>4.3884786875203384E-2</v>
       </c>
       <c r="M19" s="39" t="str">
         <v>#N/A</v>
@@ -4830,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="39">
-        <v>4.3879477418784327E-2</v>
+        <v>4.3884786875203384E-2</v>
       </c>
       <c r="P19" s="39">
         <v>0</v>
@@ -4870,24 +4922,24 @@
       <c r="AM19" s="30"/>
       <c r="AN19" s="30"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
-        <v>45574</v>
+        <v>47329</v>
       </c>
       <c r="B20" s="35">
-        <v>22305.401021214922</v>
+        <v>22182.171633423619</v>
       </c>
       <c r="C20" s="35">
         <v>1000000</v>
       </c>
       <c r="D20" s="41">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="E20" s="41">
-        <v>45574</v>
+        <v>47329</v>
       </c>
       <c r="F20" s="36">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G20" s="37" t="str">
         <v>Euribor6M Actual/360</v>
@@ -4896,16 +4948,16 @@
         <v>2</v>
       </c>
       <c r="I20" s="41">
-        <v>45387</v>
+        <v>47143</v>
       </c>
       <c r="J20" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K20" s="38">
-        <v>0.5083333333333333</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="L20" s="39">
-        <v>4.3879477418783452E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="M20" s="39" t="str">
         <v>#N/A</v>
@@ -4914,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="39">
-        <v>4.3879477418783452E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="P20" s="39">
         <v>0</v>
@@ -4954,21 +5006,21 @@
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
-        <v>45756</v>
+        <v>47511</v>
       </c>
       <c r="B21" s="35">
-        <v>22182.171633423841</v>
+        <v>22182.171633423619</v>
       </c>
       <c r="C21" s="35">
         <v>1000000</v>
       </c>
       <c r="D21" s="41">
-        <v>45574</v>
+        <v>47329</v>
       </c>
       <c r="E21" s="41">
-        <v>45756</v>
+        <v>47511</v>
       </c>
       <c r="F21" s="36">
         <v>182</v>
@@ -4980,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="41">
-        <v>45572</v>
+        <v>47325</v>
       </c>
       <c r="J21" s="36" t="str">
         <v>Actual/360</v>
@@ -4989,7 +5041,7 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="L21" s="39">
-        <v>4.3876823011168041E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="M21" s="39" t="str">
         <v>#N/A</v>
@@ -4998,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="39">
-        <v>4.3876823011168041E-2</v>
+        <v>4.3876823011167604E-2</v>
       </c>
       <c r="P21" s="39">
         <v>0</v>
@@ -5340,21 +5392,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5370,30 +5422,30 @@
         <v>35</v>
       </c>
       <c r="B2" s="15">
-        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,ReferenceDate,"f"),"2d")</f>
-        <v>42103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,SwaptionExpiry,"f"),"2d")</f>
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="29">
         <f>_xll.qlCalendarAdvance(Calendar,B2,"10Y","Unadjusted")</f>
-        <v>45756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>47511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>_xll.qlSchedule(B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19)</f>
-        <v>obj_00009#0013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000a#0000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -5414,7 +5466,7 @@
       </c>
       <c r="B8" s="15">
         <f>EffectiveDate</f>
-        <v>42103</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5475,7 @@
       </c>
       <c r="B9" s="15">
         <f>TerminationDate</f>
-        <v>45756</v>
+        <v>47511</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5490,23 +5542,23 @@
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="11" t="str">
         <f>_xll.qlSchedule(B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35)</f>
-        <v>obj_0000a#0013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000b#0000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -5527,7 +5579,7 @@
       </c>
       <c r="B24" s="15">
         <f>EffectiveDate</f>
-        <v>42103</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5536,7 +5588,7 @@
       </c>
       <c r="B25" s="15">
         <f>TerminationDate</f>
-        <v>45756</v>
+        <v>47511</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5603,7 +5655,7 @@
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -5612,10 +5664,10 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B27 B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B27 B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B13 B28:B29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B13 B28:B29" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5626,18 +5678,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5646,10 +5698,10 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlDiscountingSwapEngine(B3,B4,B5,B6)</f>
-        <v>obj_00001#0020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00004#0000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -5670,7 +5722,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>TermStructures!$B$1</f>
-        <v>obj_00000#0020</v>
+        <v>obj_00002#0000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,23 +5731,23 @@
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>_xll.qlBlackCapFloorEngine(B10,B11,B12,B13,B14)</f>
-        <v>obj_00008#0021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00006#0000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5716,7 +5768,7 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>TermStructures!$B$1</f>
-        <v>obj_00000#0020</v>
+        <v>obj_00002#0000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5725,7 +5777,7 @@
       </c>
       <c r="B12" s="8" t="str">
         <f>TermStructures!$H$1</f>
-        <v>obj_00007#0010</v>
+        <v>obj_00003#0000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5734,23 +5786,23 @@
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="11" t="str">
         <f>_xll.qlBlackSwaptionEngine(B18,B19,B20,B21,B22)</f>
-        <v>obj_00006#0021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00005#0000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -5771,7 +5823,7 @@
       </c>
       <c r="B19" s="8" t="str">
         <f>TermStructures!$B$1</f>
-        <v>obj_00000#0020</v>
+        <v>obj_00002#0000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5780,7 +5832,7 @@
       </c>
       <c r="B20" s="8" t="str">
         <f>TermStructures!$E$1</f>
-        <v>obj_00004#0016</v>
+        <v>obj_00001#0000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5789,7 +5841,7 @@
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -5804,25 +5856,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -5831,14 +5883,14 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlEuribor(B3,B4,B5,B6,B7)</f>
-        <v>obj_00003#0024</v>
+        <v>obj_00009#0000</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="11" t="str">
         <f>_xll.qlVanillaSwap(E3,E4,E5,E6,E7,E8,E9,E10,E11,E12,E13,E14)</f>
-        <v>obj_0000c#0028</v>
+        <v>obj_0000e#0000</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -5848,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -5868,7 +5920,7 @@
       </c>
       <c r="I2" s="27">
         <f>_xll.qlInstrumentNPV(E1,I1)</f>
-        <v>-39363.257108460588</v>
+        <v>-37678.051078459364</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5885,7 +5937,7 @@
       </c>
       <c r="I3" s="28">
         <f>_xll.qlVanillaSwapFairRate($E$1,$I$1)</f>
-        <v>4.5021117962698143E-2</v>
+        <v>4.5021100886513739E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5907,7 +5959,7 @@
       </c>
       <c r="I4" s="28">
         <f>_xll.qlVanillaSwapFairSpread($E$1,$I$1)</f>
-        <v>4.8525326129049808E-3</v>
+        <v>4.8525477152209454E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5916,7 +5968,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>TermStructures!B1</f>
-        <v>obj_00000#0020</v>
+        <v>obj_00002#0000</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
@@ -5936,10 +5988,10 @@
       </c>
       <c r="E6" s="8" t="str">
         <f>DateCalc!$B$5</f>
-        <v>obj_00009#0013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000a#0000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5952,7 +6004,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
@@ -5967,17 +6019,17 @@
       </c>
       <c r="B9" s="11" t="str">
         <f>_xll.qlIborLeg(B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22,B23,B24)</f>
-        <v>obj_0000d#0020</v>
+        <v>obj_0000c#0000</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="8" t="str">
         <f>DateCalc!B21</f>
-        <v>obj_0000a#0013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000b#0000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -5990,7 +6042,7 @@
       </c>
       <c r="E10" s="8" t="str">
         <f>B1</f>
-        <v>obj_00003#0024</v>
+        <v>obj_00009#0000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6033,20 +6085,20 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>DateCalc!B21</f>
-        <v>obj_0000a#0013</v>
+        <v>obj_0000b#0000</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
@@ -6062,7 +6114,7 @@
       </c>
       <c r="E16" s="11" t="str">
         <f>_xll.qlSwap(E18,E19:F19,E20:F20,E21,E22)</f>
-        <v>obj_00010#0020</v>
+        <v>obj_00014#0000</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -6072,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -6091,10 +6143,10 @@
       </c>
       <c r="I17" s="27">
         <f>_xll.qlInstrumentNPV(E16,I16)</f>
-        <v>-39363.257108460588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-37678.051078459364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -6115,20 +6167,20 @@
       </c>
       <c r="E19" s="17" t="str">
         <f>B26</f>
-        <v>obj_0000b#0013</v>
+        <v>obj_0000d#0000</v>
       </c>
       <c r="F19" s="18" t="str">
         <f>B9</f>
-        <v>obj_0000d#0020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000c#0000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>B1</f>
-        <v>obj_00003#0024</v>
+        <v>obj_00009#0000</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>18</v>
@@ -6150,7 +6202,7 @@
       </c>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -6166,23 +6218,23 @@
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="11" t="str">
         <f>_xll.qlFixedRateLeg(B28,B29,B30,B31,B32,B33,B34,B35)</f>
-        <v>obj_0000b#0013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000d#0000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +6272,7 @@
       </c>
       <c r="B31" s="8" t="str">
         <f>DateCalc!$B$5</f>
-        <v>obj_00009#0013</v>
+        <v>obj_0000a#0000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6245,7 +6297,7 @@
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -6253,14 +6305,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Payer,Receiver"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E12 B33 B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E12 B33 B17" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B12" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6271,21 +6323,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -6294,7 +6346,7 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlCapFloor(B3,B4,B5,B6,B7,B8)</f>
-        <v>obj_00012#0020</v>
+        <v>obj_00012#0000</v>
       </c>
       <c r="D1" t="s">
         <v>75</v>
@@ -6304,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6317,7 +6369,7 @@
       </c>
       <c r="E2" s="27">
         <f>_xll.qlInstrumentNPV(B1,E1)</f>
-        <v>26175.177192398387</v>
+        <v>29877.281147543676</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6330,7 +6382,7 @@
       </c>
       <c r="E3" s="2">
         <f>_xll.qlCapFloorAtmRate(B1,TermStructures!$B$1)</f>
-        <v>4.3878614023525997E-2</v>
+        <v>4.3878583450672061E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6354,7 +6406,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>Swaps!B9</f>
-        <v>obj_0000d#0020</v>
+        <v>obj_0000c#0000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6371,20 +6423,20 @@
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="11" t="str">
         <f>_xll.qlCapFloor(B12,B13,B14,B15,B16,B17)</f>
-        <v>obj_0000f#0020</v>
+        <v>obj_00011#0000</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
@@ -6394,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6407,7 +6459,7 @@
       </c>
       <c r="E11" s="27">
         <f>_xll.qlInstrumentNPV(B10,E10)</f>
-        <v>57638.1045360512</v>
+        <v>59992.89750884207</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6420,7 +6472,7 @@
       </c>
       <c r="E12" s="2">
         <f>_xll.qlCapFloorAtmRate(B10,TermStructures!$B$1)</f>
-        <v>4.3878614023525997E-2</v>
+        <v>4.3878583450672061E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6444,7 +6496,7 @@
       </c>
       <c r="B14" s="8" t="str">
         <f>Swaps!B9</f>
-        <v>obj_0000d#0020</v>
+        <v>obj_0000c#0000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6461,7 +6513,7 @@
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -6470,7 +6522,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Cap,Floor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6481,32 +6533,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlEuropeanExercise(B3,B4,B5,B6)</f>
-        <v>obj_00013#0005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00000#0000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6515,13 +6567,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
@@ -6529,26 +6581,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>_xll.qlSwaption(B10,B11,B12,B13,B14,B15)</f>
-        <v>obj_00014#0018</v>
+        <v>obj_00010#0000</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
@@ -6558,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6571,10 +6623,14 @@
       </c>
       <c r="E9" s="27">
         <f>_xll.qlInstrumentNPV(B8,E8)</f>
-        <v>7964.1828023073604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7692.187316560342</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xll.ohRangeRetrieveError(E9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -6587,25 +6643,25 @@
         <v>2.0000000500000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>Swaps!E1</f>
-        <v>obj_0000c#0028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>obj_0000e#0000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>B1</f>
-        <v>obj_00013#0005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>obj_00000#0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>80</v>
       </c>
@@ -6613,13 +6669,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -6628,7 +6684,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Physical,Cash"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6640,23 +6696,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -6665,14 +6721,14 @@
       </c>
       <c r="B1" s="11" t="str">
         <f>_xll.qlEuriborSwapIsdaFixA(B3,B4,B5,B6,B7,B8)</f>
-        <v>obj_00002#0020</v>
+        <v>obj_00008#0000</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="11" t="str">
         <f>_xll.qlSwap(E3,E4:F4,E5:F5,E6,E7)</f>
-        <v>obj_00011#0020</v>
+        <v>obj_00013#0000</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -6682,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6702,10 +6758,10 @@
       </c>
       <c r="I2" s="27">
         <f>_xll.qlInstrumentNPV(E1,I1)</f>
-        <v>-11879.445724761754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-12956.187453549297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6728,20 +6784,20 @@
       </c>
       <c r="E4" s="17" t="str">
         <f>B20</f>
-        <v>obj_0000e#0019</v>
+        <v>obj_0000f#0000</v>
       </c>
       <c r="F4" s="18" t="str">
         <f>Swaps!B9</f>
-        <v>obj_0000d#0020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000c#0000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>TermStructures!B1</f>
-        <v>obj_00000#0020</v>
+        <v>obj_00002#0000</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>18</v>
@@ -6759,14 +6815,14 @@
       </c>
       <c r="B6" s="8" t="str">
         <f>TermStructures!B1</f>
-        <v>obj_00000#0020</v>
+        <v>obj_00002#0000</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -6776,23 +6832,23 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="11" t="str">
         <f>_xll.qlCmsCouponPricer(B12,B13,B14,B15,B16,B17,B18)</f>
-        <v>obj_00005#0010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_00007#0000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6813,7 +6869,7 @@
       </c>
       <c r="B13" s="8" t="str">
         <f>TermStructures!E1</f>
-        <v>obj_00004#0016</v>
+        <v>obj_00001#0000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6846,23 +6902,23 @@
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B20" s="11" t="str">
         <f>_xll.qlCmsLeg(B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35)</f>
-        <v>obj_0000e#0019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>obj_0000f#0000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
@@ -6900,7 +6956,7 @@
       </c>
       <c r="B25" s="8" t="str">
         <f>DateCalc!B5</f>
-        <v>obj_00009#0013</v>
+        <v>obj_0000a#0000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6941,7 +6997,7 @@
       </c>
       <c r="B31" s="8" t="str">
         <f>B1</f>
-        <v>obj_00002#0020</v>
+        <v>obj_00008#0000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -6962,7 +7018,7 @@
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -6979,17 +7035,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"Standard, ExactYield, ParallelShifts, NonParallelShifts"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"ConundrumByBlack,ConundrumByNumericalIntegration"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7001,35 +7057,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="str">
         <f t="array" ref="A1:U24">_xll.qlSwapLegAnalysis(Swaps!E1,0)</f>
         <v>Payment Date</v>
@@ -7095,24 +7151,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="B2" s="35">
-        <v>50277.777777777868</v>
+        <v>50000.000000000044</v>
       </c>
       <c r="C2" s="35">
         <v>1000000</v>
       </c>
       <c r="D2" s="41">
-        <v>42103</v>
+        <v>43858</v>
       </c>
       <c r="E2" s="41">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="F2" s="36">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G2" s="37" t="str">
         <v>#N/A</v>
@@ -7127,7 +7183,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K2" s="38">
-        <v>1.0055555555555555</v>
+        <v>1</v>
       </c>
       <c r="L2" s="39">
         <v>0.05</v>
@@ -7179,24 +7235,24 @@
       <c r="AM2" s="30"/>
       <c r="AN2" s="30"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="B3" s="35">
-        <v>49861.111111111131</v>
+        <v>50000.000000000044</v>
       </c>
       <c r="C3" s="35">
         <v>1000000</v>
       </c>
       <c r="D3" s="41">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="E3" s="41">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="F3" s="36">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G3" s="37" t="str">
         <v>#N/A</v>
@@ -7211,7 +7267,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K3" s="38">
-        <v>0.99722222222222223</v>
+        <v>1</v>
       </c>
       <c r="L3" s="39">
         <v>0.05</v>
@@ -7263,24 +7319,24 @@
       <c r="AM3" s="30"/>
       <c r="AN3" s="30"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="B4" s="35">
-        <v>49861.111111111131</v>
+        <v>50277.777777777868</v>
       </c>
       <c r="C4" s="35">
         <v>1000000</v>
       </c>
       <c r="D4" s="41">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="E4" s="41">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="F4" s="36">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G4" s="37" t="str">
         <v>#N/A</v>
@@ -7295,7 +7351,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K4" s="38">
-        <v>0.99722222222222223</v>
+        <v>1.0055555555555555</v>
       </c>
       <c r="L4" s="39">
         <v>0.05</v>
@@ -7347,24 +7403,24 @@
       <c r="AM4" s="30"/>
       <c r="AN4" s="30"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="B5" s="35">
-        <v>50000.000000000044</v>
+        <v>49861.111111111131</v>
       </c>
       <c r="C5" s="35">
         <v>1000000</v>
       </c>
       <c r="D5" s="41">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="E5" s="41">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="F5" s="36">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G5" s="37" t="str">
         <v>#N/A</v>
@@ -7379,7 +7435,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K5" s="38">
-        <v>1</v>
+        <v>0.99722222222222223</v>
       </c>
       <c r="L5" s="39">
         <v>0.05</v>
@@ -7431,24 +7487,24 @@
       <c r="AM5" s="30"/>
       <c r="AN5" s="30"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="B6" s="35">
-        <v>50000.000000000044</v>
+        <v>49861.111111111131</v>
       </c>
       <c r="C6" s="35">
         <v>1000000</v>
       </c>
       <c r="D6" s="41">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="E6" s="41">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="F6" s="36">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G6" s="37" t="str">
         <v>#N/A</v>
@@ -7463,7 +7519,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K6" s="38">
-        <v>1</v>
+        <v>0.99722222222222223</v>
       </c>
       <c r="L6" s="39">
         <v>0.05</v>
@@ -7515,9 +7571,9 @@
       <c r="AM6" s="30"/>
       <c r="AN6" s="30"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="B7" s="35">
         <v>50000.000000000044</v>
@@ -7526,10 +7582,10 @@
         <v>1000000</v>
       </c>
       <c r="D7" s="41">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="E7" s="41">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="F7" s="36">
         <v>360</v>
@@ -7599,24 +7655,24 @@
       <c r="AM7" s="30"/>
       <c r="AN7" s="30"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="B8" s="35">
-        <v>50277.777777777868</v>
+        <v>50000.000000000044</v>
       </c>
       <c r="C8" s="35">
         <v>1000000</v>
       </c>
       <c r="D8" s="41">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="E8" s="41">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="F8" s="36">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G8" s="37" t="str">
         <v>#N/A</v>
@@ -7631,7 +7687,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K8" s="38">
-        <v>1.0055555555555555</v>
+        <v>1</v>
       </c>
       <c r="L8" s="39">
         <v>0.05</v>
@@ -7683,9 +7739,9 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="B9" s="35">
         <v>50000.000000000044</v>
@@ -7694,10 +7750,10 @@
         <v>1000000</v>
       </c>
       <c r="D9" s="41">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="E9" s="41">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="F9" s="36">
         <v>360</v>
@@ -7767,24 +7823,24 @@
       <c r="AM9" s="30"/>
       <c r="AN9" s="30"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="B10" s="35">
-        <v>49722.222222222226</v>
+        <v>50138.888888888956</v>
       </c>
       <c r="C10" s="35">
         <v>1000000</v>
       </c>
       <c r="D10" s="41">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="E10" s="41">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="F10" s="36">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G10" s="37" t="str">
         <v>#N/A</v>
@@ -7799,7 +7855,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K10" s="38">
-        <v>0.99444444444444446</v>
+        <v>1.0027777777777778</v>
       </c>
       <c r="L10" s="39">
         <v>0.05</v>
@@ -7851,24 +7907,24 @@
       <c r="AM10" s="30"/>
       <c r="AN10" s="30"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
-        <v>45756</v>
+        <v>47511</v>
       </c>
       <c r="B11" s="35">
-        <v>50000.000000000044</v>
+        <v>49861.111111111131</v>
       </c>
       <c r="C11" s="35">
         <v>1000000</v>
       </c>
       <c r="D11" s="41">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="E11" s="41">
-        <v>45756</v>
+        <v>47511</v>
       </c>
       <c r="F11" s="36">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G11" s="37" t="str">
         <v>#N/A</v>
@@ -7883,7 +7939,7 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="K11" s="38">
-        <v>1</v>
+        <v>0.99722222222222223</v>
       </c>
       <c r="L11" s="39">
         <v>0.05</v>
@@ -9077,35 +9133,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="str">
         <f t="array" ref="A1:U24">_xll.qlSwapLegAnalysis(CMS!E1,0)</f>
         <v>Payment Date</v>
@@ -9171,24 +9227,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="B2" s="35">
-        <v>46021.587250758144</v>
+        <v>45964.859681008398</v>
       </c>
       <c r="C2" s="35">
         <v>1000000</v>
       </c>
       <c r="D2" s="41">
-        <v>42103</v>
+        <v>43858</v>
       </c>
       <c r="E2" s="41">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="F2" s="36">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G2" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9197,16 +9253,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="41">
-        <v>42101</v>
+        <v>43854</v>
       </c>
       <c r="J2" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K2" s="38">
-        <v>1.0222222222222221</v>
+        <v>1.0166666666666666</v>
       </c>
       <c r="L2" s="39">
-        <v>4.5021117962698191E-2</v>
+        <v>4.5211337391155806E-2</v>
       </c>
       <c r="M2" s="39" t="str">
         <v>#N/A</v>
@@ -9215,10 +9271,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="39">
-        <v>4.5021117962698191E-2</v>
+        <v>4.5021100886513767E-2</v>
       </c>
       <c r="P2" s="39">
-        <v>0</v>
+        <v>1.9023650464203984E-4</v>
       </c>
       <c r="Q2" s="39">
         <v>0</v>
@@ -9236,24 +9292,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="B3" s="35">
-        <v>45700.234002910169</v>
+        <v>46023.556490581825</v>
       </c>
       <c r="C3" s="35">
         <v>1000000</v>
       </c>
       <c r="D3" s="41">
-        <v>42471</v>
+        <v>44224</v>
       </c>
       <c r="E3" s="41">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="F3" s="36">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G3" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9262,16 +9318,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="41">
-        <v>42467</v>
+        <v>44222</v>
       </c>
       <c r="J3" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K3" s="38">
-        <v>1.0111111111111111</v>
+        <v>1.0138888888888888</v>
       </c>
       <c r="L3" s="39">
-        <v>4.5198033629251823E-2</v>
+        <v>4.5393096812628653E-2</v>
       </c>
       <c r="M3" s="39" t="str">
         <v>#N/A</v>
@@ -9280,10 +9336,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="39">
-        <v>4.5007086676381654E-2</v>
+        <v>4.5006923395240671E-2</v>
       </c>
       <c r="P3" s="39">
-        <v>1.9094695287016905E-4</v>
+        <v>3.8617341738798189E-4</v>
       </c>
       <c r="Q3" s="39">
         <v>0</v>
@@ -9301,24 +9357,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="B4" s="35">
-        <v>45897.754769535633</v>
+        <v>46478.496264358801</v>
       </c>
       <c r="C4" s="35">
         <v>1000000</v>
       </c>
       <c r="D4" s="41">
-        <v>42835</v>
+        <v>44589</v>
       </c>
       <c r="E4" s="41">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="F4" s="36">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G4" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9327,16 +9383,16 @@
         <v>2</v>
       </c>
       <c r="I4" s="41">
-        <v>42831</v>
+        <v>44587</v>
       </c>
       <c r="J4" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K4" s="38">
-        <v>1.0111111111111111</v>
+        <v>1.0194444444444444</v>
       </c>
       <c r="L4" s="39">
-        <v>4.5393383838002281E-2</v>
+        <v>4.5591985436428256E-2</v>
       </c>
       <c r="M4" s="39" t="str">
         <v>#N/A</v>
@@ -9345,10 +9401,10 @@
         <v>1</v>
       </c>
       <c r="O4" s="39">
-        <v>4.5008215591537871E-2</v>
+        <v>4.5008029175311381E-2</v>
       </c>
       <c r="P4" s="39">
-        <v>3.8516824646440961E-4</v>
+        <v>5.8395626111687471E-4</v>
       </c>
       <c r="Q4" s="39">
         <v>0</v>
@@ -9366,24 +9422,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="B5" s="35">
-        <v>46236.176220051486</v>
+        <v>46316.034762055271</v>
       </c>
       <c r="C5" s="35">
         <v>1000000</v>
       </c>
       <c r="D5" s="41">
-        <v>43199</v>
+        <v>44956</v>
       </c>
       <c r="E5" s="41">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="F5" s="36">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G5" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9392,16 +9448,16 @@
         <v>2</v>
       </c>
       <c r="I5" s="41">
-        <v>43195</v>
+        <v>44952</v>
       </c>
       <c r="J5" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K5" s="38">
-        <v>1.0138888888888888</v>
+        <v>1.0111111111111111</v>
       </c>
       <c r="L5" s="39">
-        <v>4.5602803943064485E-2</v>
+        <v>4.5807067347087636E-2</v>
       </c>
       <c r="M5" s="39" t="str">
         <v>#N/A</v>
@@ -9410,10 +9466,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="39">
-        <v>4.5019506828358764E-2</v>
+        <v>4.5017527985410921E-2</v>
       </c>
       <c r="P5" s="39">
-        <v>5.832971147057206E-4</v>
+        <v>7.8953936167671518E-4</v>
       </c>
       <c r="Q5" s="39">
         <v>0</v>
@@ -9431,24 +9487,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="B6" s="35">
-        <v>46571.044146595494</v>
+        <v>46634.111577323143</v>
       </c>
       <c r="C6" s="35">
         <v>1000000</v>
       </c>
       <c r="D6" s="41">
-        <v>43564</v>
+        <v>45320</v>
       </c>
       <c r="E6" s="41">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="F6" s="36">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G6" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9457,16 +9513,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="41">
-        <v>43560</v>
+        <v>45316</v>
       </c>
       <c r="J6" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K6" s="38">
-        <v>1.0166666666666666</v>
+        <v>1.0138888888888888</v>
       </c>
       <c r="L6" s="39">
-        <v>4.580758440648737E-2</v>
+        <v>4.5995288131058451E-2</v>
       </c>
       <c r="M6" s="39" t="str">
         <v>#N/A</v>
@@ -9475,10 +9531,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="39">
-        <v>4.5021105506382955E-2</v>
+        <v>4.4998335106035847E-2</v>
       </c>
       <c r="P6" s="39">
-        <v>7.8647890010441479E-4</v>
+        <v>9.9695302502260386E-4</v>
       </c>
       <c r="Q6" s="39">
         <v>0</v>
@@ -9496,21 +9552,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="B7" s="35">
-        <v>46641.337224146693</v>
+        <v>46857.042463408805</v>
       </c>
       <c r="C7" s="35">
         <v>1000000</v>
       </c>
       <c r="D7" s="41">
-        <v>43930</v>
+        <v>45685</v>
       </c>
       <c r="E7" s="41">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="F7" s="36">
         <v>365</v>
@@ -9522,7 +9578,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="41">
-        <v>43928</v>
+        <v>45681</v>
       </c>
       <c r="J7" s="36" t="str">
         <v>Actual/360</v>
@@ -9531,7 +9587,7 @@
         <v>1.0138888888888888</v>
       </c>
       <c r="L7" s="39">
-        <v>4.6002414796418659E-2</v>
+        <v>4.6215165169389512E-2</v>
       </c>
       <c r="M7" s="39" t="str">
         <v>#N/A</v>
@@ -9540,10 +9596,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="39">
-        <v>4.5006928221515731E-2</v>
+        <v>4.5006994120837612E-2</v>
       </c>
       <c r="P7" s="39">
-        <v>9.9548657490292763E-4</v>
+        <v>1.2081710485518996E-3</v>
       </c>
       <c r="Q7" s="39">
         <v>0</v>
@@ -9561,24 +9617,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="B8" s="35">
-        <v>47112.214357766999</v>
+        <v>47078.920154865678</v>
       </c>
       <c r="C8" s="35">
         <v>1000000</v>
       </c>
       <c r="D8" s="41">
-        <v>44295</v>
+        <v>46050</v>
       </c>
       <c r="E8" s="41">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="F8" s="36">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G8" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9587,16 +9643,16 @@
         <v>2</v>
       </c>
       <c r="I8" s="41">
-        <v>44293</v>
+        <v>46048</v>
       </c>
       <c r="J8" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K8" s="38">
-        <v>1.0194444444444444</v>
+        <v>1.0138888888888888</v>
       </c>
       <c r="L8" s="39">
-        <v>4.6213616263749646E-2</v>
+        <v>4.6434003440415469E-2</v>
       </c>
       <c r="M8" s="39" t="str">
         <v>#N/A</v>
@@ -9605,10 +9661,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="39">
-        <v>4.5008034218931466E-2</v>
+        <v>4.5008026308675252E-2</v>
       </c>
       <c r="P8" s="39">
-        <v>1.2055820448181806E-3</v>
+        <v>1.4259771317402178E-3</v>
       </c>
       <c r="Q8" s="39">
         <v>0</v>
@@ -9626,21 +9682,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="B9" s="35">
-        <v>47090.565819230549</v>
+        <v>47316.068054612435</v>
       </c>
       <c r="C9" s="35">
         <v>1000000</v>
       </c>
       <c r="D9" s="41">
-        <v>44662</v>
+        <v>46415</v>
       </c>
       <c r="E9" s="41">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="F9" s="36">
         <v>365</v>
@@ -9652,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="41">
-        <v>44658</v>
+        <v>46413</v>
       </c>
       <c r="J9" s="36" t="str">
         <v>Actual/360</v>
@@ -9661,7 +9717,7 @@
         <v>1.0138888888888888</v>
       </c>
       <c r="L9" s="39">
-        <v>4.6445489575131504E-2</v>
+        <v>4.6667902738795827E-2</v>
       </c>
       <c r="M9" s="39" t="str">
         <v>#N/A</v>
@@ -9670,10 +9726,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="39">
-        <v>4.5019527592106562E-2</v>
+        <v>4.5019432844782201E-2</v>
       </c>
       <c r="P9" s="39">
-        <v>1.4259619830249426E-3</v>
+        <v>1.6484698940136266E-3</v>
       </c>
       <c r="Q9" s="39">
         <v>0</v>
@@ -9691,24 +9747,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="B10" s="35">
-        <v>47188.95522306973</v>
+        <v>47806.184560883565</v>
       </c>
       <c r="C10" s="35">
         <v>1000000</v>
       </c>
       <c r="D10" s="41">
-        <v>45027</v>
+        <v>46780</v>
       </c>
       <c r="E10" s="41">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="F10" s="36">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G10" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9717,16 +9773,16 @@
         <v>2</v>
       </c>
       <c r="I10" s="41">
-        <v>45021</v>
+        <v>46778</v>
       </c>
       <c r="J10" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K10" s="38">
-        <v>1.0111111111111111</v>
+        <v>1.0194444444444444</v>
       </c>
       <c r="L10" s="39">
-        <v>4.6670395275563471E-2</v>
+        <v>4.6894349977978429E-2</v>
       </c>
       <c r="M10" s="39" t="str">
         <v>#N/A</v>
@@ -9735,10 +9791,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="39">
-        <v>4.5021127210402197E-2</v>
+        <v>4.5021102135241485E-2</v>
       </c>
       <c r="P10" s="39">
-        <v>1.6492680651612746E-3</v>
+        <v>1.8732478427369442E-3</v>
       </c>
       <c r="Q10" s="39">
         <v>0</v>
@@ -9756,24 +9812,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
-        <v>45756</v>
+        <v>47511</v>
       </c>
       <c r="B11" s="35">
-        <v>47531.46930844945</v>
+        <v>47625.767926565561</v>
       </c>
       <c r="C11" s="35">
         <v>1000000</v>
       </c>
       <c r="D11" s="41">
-        <v>45391</v>
+        <v>47147</v>
       </c>
       <c r="E11" s="41">
-        <v>45756</v>
+        <v>47511</v>
       </c>
       <c r="F11" s="36">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G11" s="37" t="str">
         <v>EuriborSwapIsdaFixA10Y 30/360 (Bond Basis)</v>
@@ -9782,16 +9838,16 @@
         <v>2</v>
       </c>
       <c r="I11" s="41">
-        <v>45387</v>
+        <v>47143</v>
       </c>
       <c r="J11" s="36" t="str">
         <v>Actual/360</v>
       </c>
       <c r="K11" s="38">
-        <v>1.0138888888888888</v>
+        <v>1.0111111111111111</v>
       </c>
       <c r="L11" s="39">
-        <v>4.6880353290525492E-2</v>
+        <v>4.7102407839460445E-2</v>
       </c>
       <c r="M11" s="39" t="str">
         <v>#N/A</v>
@@ -9800,10 +9856,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="39">
-        <v>4.5007071093443957E-2</v>
+        <v>4.4994407888799812E-2</v>
       </c>
       <c r="P11" s="39">
-        <v>1.8732821970815355E-3</v>
+        <v>2.1079999506606328E-3</v>
       </c>
       <c r="Q11" s="39">
         <v>0</v>
